--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷验证" sheetId="2" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">缺陷验证!$G$7</definedName>
     <definedName name="_123">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
     <definedName name="_aaa41">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">缺陷验证!$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
     <definedName name="a">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
     <definedName name="aaa">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
@@ -43,191 +43,291 @@
     <definedName name="目标">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
     <definedName name="智能搜索">IPC-'[1]9000用例修改'!$A$469:$A$469</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
+    <t>缺陷验证系统测试用例</t>
+  </si>
+  <si>
     <t>模块描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>简单描述该模块要实现的功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试环境</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试记录中填写，至少要包括测试型号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试版本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试记录中填写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>左对齐、靠上</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试用例描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签1</t>
+  </si>
+  <si>
+    <t>标签2</t>
   </si>
   <si>
     <t>测试优先级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试步骤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P/F/NT/NP/BLOCK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缺陷严重级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实际测试结果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷验证系统测试用例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +340,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -251,29 +537,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,33 +567,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -316,92 +602,378 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="2"/>
-    <cellStyle name="常规 10 2 2 3" xfId="4"/>
-    <cellStyle name="常规 10 3 2" xfId="10"/>
-    <cellStyle name="常规 10 3 7" xfId="5"/>
-    <cellStyle name="常规 10 3_9100 ST系列DVR（V2.0.0）项目测试用例系统测试用例--邓雯雯 2 2 2" xfId="6"/>
-    <cellStyle name="常规 13" xfId="1"/>
-    <cellStyle name="常规 4 3 5 2" xfId="11"/>
-    <cellStyle name="常规 4 4 2" xfId="9"/>
-    <cellStyle name="常规 4 5 3" xfId="7"/>
-    <cellStyle name="常规 4 5 3 2" xfId="8"/>
-    <cellStyle name="常规_iDS-6101HF行为分析系列(V1.0.3)系统测试用例 2" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规_iDS-6101HF行为分析系列(V1.0.3)系统测试用例 2" xfId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="常规 10 2 2 3" xfId="12"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="常规 4 3 5 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
+    <cellStyle name="标题" xfId="20" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="常规 4 4 2" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
+    <cellStyle name="输出" xfId="28" builtinId="21"/>
+    <cellStyle name="计算" xfId="29" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="常规 4 5 3 2" xfId="39"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
+    <cellStyle name="常规 4 5 3" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="常规 10" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
+    <cellStyle name="常规 10 3 2" xfId="56"/>
+    <cellStyle name="常规 10 3 7" xfId="57"/>
+    <cellStyle name="常规 10 3_9100 ST系列DVR（V2.0.0）项目测试用例系统测试用例--邓雯雯 2 2 2" xfId="58"/>
+    <cellStyle name="常规 13" xfId="59"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="9000用例修改"/>
@@ -456,7 +1028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -491,7 +1063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -665,24 +1237,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="8" width="9" style="1"/>
@@ -693,203 +1260,205 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="18.75" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" ht="24" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G7"/>
+  <autoFilter ref="G7">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="6">
-    <mergeCell ref="B6:P6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
       <formula1>"验证,冒烟&amp;验证"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>